--- a/biology/Mycologie/Acide_iboténique/Acide_iboténique.xlsx
+++ b/biology/Mycologie/Acide_iboténique/Acide_iboténique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_ibot%C3%A9nique</t>
+          <t>Acide_iboténique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'acide iboténique est un composé organique qui est présent naturellement dans les champignons Amanita muscaria et Amanita pantherina, et dans d'autres. L'acide iboténique est un puissant neurotoxique qui est utilisé  comme un "agent de lésions cérébrales" et s'est révélé hautement neurotoxique quand il est injecté directement dans le cerveau de souris et de rats[4].
+L'acide iboténique est un composé organique qui est présent naturellement dans les champignons Amanita muscaria et Amanita pantherina, et dans d'autres. L'acide iboténique est un puissant neurotoxique qui est utilisé  comme un "agent de lésions cérébrales" et s'est révélé hautement neurotoxique quand il est injecté directement dans le cerveau de souris et de rats.
 Originellement, l'acide iboténique a été isolé, en 1960, de Amanita ibotengutake au Japon.  A. ibotengutake est très semblable à A. pantherina.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acide_ibot%C3%A9nique</t>
+          <t>Acide_iboténique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,15 @@
           <t>Psychopharmacologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quand de l'acide iboténique est ingéré, une petite portion est décarboxylée en muscimol. L'acide iboténique produit des effets enthéogéniques chez l'être humain à des doses de la gamme de 50–100 mg[5]. Le pic d'intoxication est atteint approximativement 2-3 heures après une ingestion orale[6] et consiste en un ou tous les symptômes suivants :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quand de l'acide iboténique est ingéré, une petite portion est décarboxylée en muscimol. L'acide iboténique produit des effets enthéogéniques chez l'être humain à des doses de la gamme de 50–100 mg. Le pic d'intoxication est atteint approximativement 2-3 heures après une ingestion orale et consiste en un ou tous les symptômes suivants :
 hallucination visuelle et perceptions sensorielles altérées ;
 perte d'équilibre, vertiges ;
 contractions musculaires (communément classées à tort comme des convulsions).
-Ces effets perdurent généralement 6 à 8 heures selon la dose ingérée[7].
+Ces effets perdurent généralement 6 à 8 heures selon la dose ingérée.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acide_ibot%C3%A9nique</t>
+          <t>Acide_iboténique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Usages dans les rituels chamaniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'acide iboténique (couplé aux autres substances comme le muscimol trouvé dans Amanita muscaria et Amanita pantherina) est un produit commun dans les rituels chamaniques. Le muscimol est excrété inchangé et de manière relativement importante dans les urines et il y a des soupçons avérés de chamanes réutilisant ces urines à des fins d'états de transe et même du reste de la tribu utilisant ses urines de chamane[8],[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acide iboténique (couplé aux autres substances comme le muscimol trouvé dans Amanita muscaria et Amanita pantherina) est un produit commun dans les rituels chamaniques. Le muscimol est excrété inchangé et de manière relativement importante dans les urines et il y a des soupçons avérés de chamanes réutilisant ces urines à des fins d'états de transe et même du reste de la tribu utilisant ses urines de chamane,.
 </t>
         </is>
       </c>
